--- a/jpcore-r4/feature/swg5-add_term_strength_type/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/swg5-add_term_strength_type/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T06:15:38+00:00</t>
+    <t>2022-08-05T11:01:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
